--- a/output/Lost_GO_terms_in_five_species.PlantSpecific.xlsx
+++ b/output/Lost_GO_terms_in_five_species.PlantSpecific.xlsx
@@ -693,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GO:1902184</t>
+          <t>GO:0042773</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>negative regulation of shoot apical meristem development</t>
+          <t>ATP synthesis coupled electron transport</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -730,12 +730,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GO:0042773</t>
+          <t>GO:0043086</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATP synthesis coupled electron transport</t>
+          <t>negative regulation of catalytic activity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -767,12 +767,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GO:0043086</t>
+          <t>GO:1902184</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>negative regulation of catalytic activity</t>
+          <t>negative regulation of shoot apical meristem development</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1285,12 +1285,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GO:0043921</t>
+          <t>GO:0043923</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>modulation by host of viral transcription</t>
+          <t>positive regulation by host of viral transcription</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1322,12 +1322,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GO:0043923</t>
+          <t>GO:0043921</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>positive regulation by host of viral transcription</t>
+          <t>modulation by host of viral transcription</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1729,12 +1729,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GO:0019471</t>
+          <t>GO:0071602</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4-hydroxyproline metabolic process</t>
+          <t>phytosphingosine biosynthetic process</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1766,12 +1766,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GO:0071602</t>
+          <t>GO:0051555</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>phytosphingosine biosynthetic process</t>
+          <t>flavonol biosynthetic process</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1803,12 +1803,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GO:0051555</t>
+          <t>GO:0018401</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>flavonol biosynthetic process</t>
+          <t>peptidyl-proline hydroxylation to 4-hydroxy-L-proline</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1840,12 +1840,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GO:0018401</t>
+          <t>GO:0080156</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>peptidyl-proline hydroxylation to 4-hydroxy-L-proline</t>
+          <t>mitochondrial mRNA modification</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1877,12 +1877,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GO:0080156</t>
+          <t>GO:0090284</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mitochondrial mRNA modification</t>
+          <t>positive regulation of protein glycosylation in Golgi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1892,17 +1892,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1951,12 +1951,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GO:0090284</t>
+          <t>GO:0019471</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>positive regulation of protein glycosylation in Golgi</t>
+          <t>4-hydroxyproline metabolic process</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2136,12 +2136,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GO:0010208</t>
+          <t>GO:0097480</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pollen wall assembly</t>
+          <t>establishment of synaptic vesicle localization</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2173,12 +2173,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GO:0010500</t>
+          <t>GO:0048489</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>transmitting tissue development</t>
+          <t>synaptic vesicle transport</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2210,12 +2210,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GO:0097480</t>
+          <t>GO:0010208</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>establishment of synaptic vesicle localization</t>
+          <t>pollen wall assembly</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2247,12 +2247,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GO:0048489</t>
+          <t>GO:0010500</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>synaptic vesicle transport</t>
+          <t>transmitting tissue development</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2913,12 +2913,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GO:0034461</t>
+          <t>GO:0044245</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>uropod retraction</t>
+          <t>polysaccharide digestion</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2950,12 +2950,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GO:0044550</t>
+          <t>GO:0034461</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>secondary metabolite biosynthetic process</t>
+          <t>uropod retraction</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2987,12 +2987,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GO:0080021</t>
+          <t>GO:0044550</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>response to benzoic acid</t>
+          <t>secondary metabolite biosynthetic process</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GO:0044245</t>
+          <t>GO:0080021</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>polysaccharide digestion</t>
+          <t>response to benzoic acid</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3468,12 +3468,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GO:0048385</t>
+          <t>GO:0030511</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>regulation of retinoic acid receptor signaling pathway</t>
+          <t>positive regulation of transforming growth factor beta receptor signaling pathway</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3505,12 +3505,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GO:0030511</t>
+          <t>GO:0048385</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>positive regulation of transforming growth factor beta receptor signaling pathway</t>
+          <t>regulation of retinoic acid receptor signaling pathway</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3653,12 +3653,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GO:0001932</t>
+          <t>GO:0071902</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>regulation of protein phosphorylation</t>
+          <t>positive regulation of protein serine/threonine kinase activity</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3690,12 +3690,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GO:0071902</t>
+          <t>GO:0001932</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>positive regulation of protein serine/threonine kinase activity</t>
+          <t>regulation of protein phosphorylation</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4097,12 +4097,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GO:0016573</t>
+          <t>GO:0034260</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>histone acetylation</t>
+          <t>negative regulation of GTPase activity</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4134,12 +4134,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GO:0034260</t>
+          <t>GO:0016573</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>negative regulation of GTPase activity</t>
+          <t>histone acetylation</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4282,12 +4282,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GO:1902198</t>
+          <t>GO:1900400</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3-methylbut-2-enoyl-CoA(4-) metabolic process</t>
+          <t>regulation of iron ion import into cell by regulation of transcription from RNA polymerase II promoter</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4319,12 +4319,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GO:1902196</t>
+          <t>GO:1902198</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>isovaleryl-CoA(4-) catabolic process</t>
+          <t>3-methylbut-2-enoyl-CoA(4-) metabolic process</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4356,12 +4356,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GO:1902192</t>
+          <t>GO:1902196</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2-methylbut-2-enoyl-CoA(4-) metabolic process</t>
+          <t>isovaleryl-CoA(4-) catabolic process</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4393,12 +4393,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GO:1902190</t>
+          <t>GO:1902192</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2-methylbutanoyl-CoA(4-) catabolic process</t>
+          <t>2-methylbut-2-enoyl-CoA(4-) metabolic process</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4430,12 +4430,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GO:1900400</t>
+          <t>GO:1902190</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>regulation of iron ion import into cell by regulation of transcription from RNA polymerase II promoter</t>
+          <t>2-methylbutanoyl-CoA(4-) catabolic process</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4763,12 +4763,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GO:0010815</t>
+          <t>GO:0090303</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bradykinin catabolic process</t>
+          <t>positive regulation of wound healing</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4874,12 +4874,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GO:0032508</t>
+          <t>GO:0010815</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DNA duplex unwinding</t>
+          <t>bradykinin catabolic process</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4911,12 +4911,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GO:0015700</t>
+          <t>GO:0010104</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>arsenite transport</t>
+          <t>regulation of ethylene-activated signaling pathway</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4948,12 +4948,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GO:0090303</t>
+          <t>GO:0032508</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>positive regulation of wound healing</t>
+          <t>DNA duplex unwinding</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5059,12 +5059,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GO:0009556</t>
+          <t>GO:0015700</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>microsporogenesis</t>
+          <t>arsenite transport</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5096,12 +5096,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GO:1900000</t>
+          <t>GO:0009556</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>regulation of anthocyanin catabolic process</t>
+          <t>microsporogenesis</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5170,12 +5170,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>GO:1901684</t>
+          <t>GO:1900000</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>arsenate ion transmembrane transport</t>
+          <t>regulation of anthocyanin catabolic process</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5207,12 +5207,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GO:0010104</t>
+          <t>GO:1901684</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>regulation of ethylene-activated signaling pathway</t>
+          <t>arsenate ion transmembrane transport</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">

--- a/output/Lost_GO_terms_in_five_species.PlantSpecific.xlsx
+++ b/output/Lost_GO_terms_in_five_species.PlantSpecific.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,12 +397,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GO:0009451</t>
+          <t>GO:0010374</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RNA modification</t>
+          <t>stomatal complex development</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -412,7 +412,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -434,12 +434,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GO:0032260</t>
+          <t>GO:1900140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>response to jasmonic acid stimulus involved in jasmonic acid and ethylene-dependent systemic resistance</t>
+          <t>regulation of seedling development</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -471,12 +471,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GO:0048462</t>
+          <t>GO:0042407</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>carpel formation</t>
+          <t>cristae formation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GO:0016081</t>
+          <t>GO:0006446</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>synaptic vesicle docking</t>
+          <t>regulation of translational initiation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GO:0017156</t>
+          <t>GO:0048658</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>calcium-ion regulated exocytosis</t>
+          <t>anther wall tapetum development</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GO:0016080</t>
+          <t>GO:0046785</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>synaptic vesicle targeting</t>
+          <t>microtubule polymerization</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -619,12 +619,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GO:0032197</t>
+          <t>GO:0043153</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>transposition,RNA-mediated</t>
+          <t>entrainment of circadian clock by photoperiod</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -656,12 +656,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GO:0042273</t>
+          <t>GO:0080143</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ribosomal large subunit biogenesis</t>
+          <t>regulation of amino acid export</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -693,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GO:0042773</t>
+          <t>GO:0015990</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATP synthesis coupled electron transport</t>
+          <t>electron transport coupled proton transport</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -730,12 +730,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GO:0043086</t>
+          <t>GO:0042773</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>negative regulation of catalytic activity</t>
+          <t>ATP synthesis coupled electron transport</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -767,12 +767,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GO:1902184</t>
+          <t>GO:0010208</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>negative regulation of shoot apical meristem development</t>
+          <t>pollen wall assembly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -804,12 +804,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GO:0050434</t>
+          <t>GO:0071289</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>positive regulation of viral transcription</t>
+          <t>cellular response to nickel ion</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -841,12 +841,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GO:0080143</t>
+          <t>GO:0010500</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>regulation of amino acid export</t>
+          <t>transmitting tissue development</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -878,12 +878,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GO:0006446</t>
+          <t>GO:0042273</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>regulation of translational initiation</t>
+          <t>ribosomal large subunit biogenesis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -915,12 +915,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GO:0019761</t>
+          <t>GO:0006812</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>glucosinolate biosynthetic process</t>
+          <t>monoatomic cation transport</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -952,12 +952,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GO:0033485</t>
+          <t>GO:1902184</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cyanidin 3-O-glucoside biosynthetic process</t>
+          <t>negative regulation of shoot apical meristem development</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -989,12 +989,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GO:0033303</t>
+          <t>GO:0016131</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>quercetin O-glucoside biosynthetic process</t>
+          <t>brassinosteroid metabolic process</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1026,12 +1026,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GO:0033330</t>
+          <t>GO:0010064</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>kaempferol O-glucoside biosynthetic process</t>
+          <t>embryonic shoot morphogenesis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1063,12 +1063,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GO:0071289</t>
+          <t>GO:0018008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cellular response to nickel ion</t>
+          <t>N-terminal peptidyl-glycine N-myristoylation</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1100,12 +1100,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GO:0051603</t>
+          <t>GO:0019761</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>proteolysis involved in cellular protein catabolic process</t>
+          <t>glucosinolate biosynthetic process</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1137,12 +1137,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GO:0042407</t>
+          <t>GO:0030244</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cristae formation</t>
+          <t>cellulose biosynthetic process</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GO:0043153</t>
+          <t>GO:0051555</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>entrainment of circadian clock by photoperiod</t>
+          <t>flavonol biosynthetic process</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1211,12 +1211,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GO:0006812</t>
+          <t>GO:0043086</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cation transport</t>
+          <t>negative regulation of catalytic activity</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1248,12 +1248,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GO:0052472</t>
+          <t>GO:0009694</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>modulation by host of symbiont transcription</t>
+          <t>jasmonic acid metabolic process</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1285,12 +1285,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GO:0043923</t>
+          <t>GO:0080156</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>positive regulation by host of viral transcription</t>
+          <t>mitochondrial mRNA modification</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1322,12 +1322,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GO:0043921</t>
+          <t>GO:0006885</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>modulation by host of viral transcription</t>
+          <t>regulation of pH</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1359,12 +1359,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GO:0032461</t>
+          <t>GO:0006508</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>positive regulation of protein oligomerization</t>
+          <t>proteolysis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1396,12 +1396,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GO:0018008</t>
+          <t>GO:0048462</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N-terminal peptidyl-glycine N-myristoylation</t>
+          <t>carpel formation</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1433,12 +1433,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GO:0010064</t>
+          <t>GO:0032260</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>embryonic shoot morphogenesis</t>
+          <t>response to jasmonic acid stimulus involved in jasmonic acid and ethylene-dependent systemic resistance</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GO:0010374</t>
+          <t>GO:0051603</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>stomatal complex development</t>
+          <t>proteolysis involved in protein catabolic process</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1507,12 +1507,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GO:0006885</t>
+          <t>GO:0090501</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>regulation of pH</t>
+          <t>RNA phosphodiester bond hydrolysis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1544,12 +1544,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GO:0046785</t>
+          <t>GO:0032197</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>microtubule polymerization</t>
+          <t>transposition, RNA-mediated</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1581,12 +1581,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GO:0006508</t>
+          <t>GO:0006278</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>proteolysis</t>
+          <t>RNA-templated DNA biosynthetic process</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GO:1900140</t>
+          <t>GO:0090305</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>regulation of seedling development</t>
+          <t>nucleic acid phosphodiester bond hydrolysis</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1655,12 +1655,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GO:0006278</t>
+          <t>GO:0009451</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RNA-dependent DNA biosynthetic process</t>
+          <t>RNA modification</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1692,22 +1692,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GO:0030244</t>
+          <t>GO:0051707</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cellulose biosynthetic process</t>
+          <t>response to other organism</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1729,22 +1729,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GO:0071602</t>
+          <t>GO:0006012</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>phytosphingosine biosynthetic process</t>
+          <t>galactose metabolic process</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1766,22 +1766,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GO:0051555</t>
+          <t>GO:0002229</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>flavonol biosynthetic process</t>
+          <t>defense response to oomycetes</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1803,22 +1803,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GO:0018401</t>
+          <t>GO:0080021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>peptidyl-proline hydroxylation to 4-hydroxy-L-proline</t>
+          <t>response to benzoic acid</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1840,22 +1840,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GO:0080156</t>
+          <t>GO:0072756</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mitochondrial mRNA modification</t>
+          <t>cellular response to paraquat</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1877,17 +1877,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GO:0090284</t>
+          <t>GO:0009629</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>positive regulation of protein glycosylation in Golgi</t>
+          <t>response to gravity</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1914,17 +1914,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GO:0009694</t>
+          <t>GO:0007165</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jasmonic acid metabolic process</t>
+          <t>signal transduction</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1951,22 +1951,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GO:0019471</t>
+          <t>GO:0006182</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4-hydroxyproline metabolic process</t>
+          <t>cGMP biosynthetic process</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1988,17 +1988,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GO:0090305</t>
+          <t>GO:0006032</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nucleic acid phosphodiester bond hydrolysis</t>
+          <t>chitin catabolic process</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2025,17 +2025,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GO:0090501</t>
+          <t>GO:0033259</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RNA phosphodiester bond hydrolysis</t>
+          <t>plastid DNA replication</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2062,17 +2062,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GO:0015990</t>
+          <t>GO:0015709</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>electron transport coupled proton transport</t>
+          <t>thiosulfate transport</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2099,27 +2099,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GO:0048658</t>
+          <t>GO:0040007</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>anther wall tapetum development</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2136,22 +2136,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GO:0097480</t>
+          <t>GO:0045962</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>establishment of synaptic vesicle localization</t>
+          <t>positive regulation of development, heterochronic</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2173,22 +2173,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GO:0048489</t>
+          <t>GO:0072488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>synaptic vesicle transport</t>
+          <t>ammonium transmembrane transport</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2210,27 +2210,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GO:0010208</t>
+          <t>GO:0010337</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pollen wall assembly</t>
+          <t>regulation of salicylic acid metabolic process</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2247,22 +2247,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GO:0010500</t>
+          <t>GO:0015695</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>transmitting tissue development</t>
+          <t>organic cation transport</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2284,17 +2284,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GO:0016131</t>
+          <t>GO:0010310</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>brassinosteroid metabolic process</t>
+          <t>regulation of hydrogen peroxide metabolic process</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2321,12 +2321,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GO:0010726</t>
+          <t>GO:0010942</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>positive regulation of hydrogen peroxide metabolic process</t>
+          <t>positive regulation of cell death</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2358,12 +2358,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GO:0010310</t>
+          <t>GO:0016101</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>regulation of hydrogen peroxide metabolic process</t>
+          <t>diterpenoid metabolic process</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2395,12 +2395,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GO:0015695</t>
+          <t>GO:0071395</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>organic cation transport</t>
+          <t>cellular response to jasmonic acid stimulus</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2432,12 +2432,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GO:0040007</t>
+          <t>GO:0051258</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>protein polymerization</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2469,12 +2469,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GO:0080181</t>
+          <t>GO:0032350</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>lateral root branching</t>
+          <t>regulation of hormone metabolic process</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2506,12 +2506,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GO:0051258</t>
+          <t>GO:0080181</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>protein polymerization</t>
+          <t>lateral root branching</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2543,12 +2543,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GO:0071395</t>
+          <t>GO:0010726</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>cellular response to jasmonic acid stimulus</t>
+          <t>positive regulation of hydrogen peroxide metabolic process</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2580,12 +2580,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GO:0006012</t>
+          <t>GO:0044550</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>galactose metabolic process</t>
+          <t>secondary metabolite biosynthetic process</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2617,12 +2617,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GO:0016101</t>
+          <t>GO:0035194</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>diterpenoid metabolic process</t>
+          <t>RNA-mediated post-transcriptional gene silencing</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GO:1900049</t>
+          <t>GO:0010992</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>regulation of histone exchange</t>
+          <t>ubiquitin recycling</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2691,12 +2691,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GO:0045962</t>
+          <t>GO:1900000</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>positive regulation of development,heterochronic</t>
+          <t>regulation of anthocyanin catabolic process</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2706,12 +2706,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2728,12 +2728,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GO:0070562</t>
+          <t>GO:0009624</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>regulation of vitamin D receptor signaling pathway</t>
+          <t>response to nematode</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2743,12 +2743,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2765,12 +2765,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GO:0002229</t>
+          <t>GO:0051289</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>defense response to oomycetes</t>
+          <t>protein homotetramerization</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GO:0009629</t>
+          <t>GO:0071329</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>response to gravity</t>
+          <t>cellular response to sucrose stimulus</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2839,12 +2839,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GO:0032350</t>
+          <t>GO:0006075</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>regulation of hormone metabolic process</t>
+          <t>(1-&gt;3)-beta-D-glucan biosynthetic process</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2876,12 +2876,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GO:0010337</t>
+          <t>GO:0001932</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>regulation of salicylic acid metabolic process</t>
+          <t>regulation of protein phosphorylation</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2913,12 +2913,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GO:0044245</t>
+          <t>GO:0009556</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>polysaccharide digestion</t>
+          <t>microsporogenesis</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2950,12 +2950,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GO:0034461</t>
+          <t>GO:0016573</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>uropod retraction</t>
+          <t>histone acetylation</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2987,12 +2987,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GO:0044550</t>
+          <t>GO:0000913</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>secondary metabolite biosynthetic process</t>
+          <t>preprophase band assembly</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GO:0080021</t>
+          <t>GO:0060213</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>response to benzoic acid</t>
+          <t>positive regulation of nuclear-transcribed mRNA poly(A) tail shortening</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3061,12 +3061,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GO:0072756</t>
+          <t>GO:0097502</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cellular response to paraquat</t>
+          <t>mannosylation</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3076,12 +3076,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3098,12 +3098,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GO:0010942</t>
+          <t>GO:0030837</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>positive regulation of cell death</t>
+          <t>negative regulation of actin filament polymerization</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3135,12 +3135,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GO:0015709</t>
+          <t>GO:0010104</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>thiosulfate transport</t>
+          <t>regulation of ethylene-activated signaling pathway</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3150,12 +3150,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3172,12 +3172,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GO:0007165</t>
+          <t>GO:0071902</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>signal transduction</t>
+          <t>positive regulation of protein serine/threonine kinase activity</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3187,12 +3187,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3209,12 +3209,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GO:0033259</t>
+          <t>GO:0034260</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>plastid DNA replication</t>
+          <t>negative regulation of GTPase activity</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3224,12 +3224,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3246,12 +3246,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GO:0006182</t>
+          <t>GO:0032508</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>cGMP biosynthetic process</t>
+          <t>DNA duplex unwinding</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3283,12 +3283,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GO:0072488</t>
+          <t>GO:1901255</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ammonium transmembrane transport</t>
+          <t>nucleotide-excision repair involved in interstrand cross-link repair</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3320,12 +3320,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GO:0010258</t>
+          <t>GO:0043007</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NADH dehydrogenase complex (plastoquinone) assembly</t>
+          <t>maintenance of rDNA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3357,12 +3357,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GO:0071465</t>
+          <t>GO:0031022</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cellular response to desiccation</t>
+          <t>nuclear migration along microfilament</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3372,12 +3372,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3394,12 +3394,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GO:0006032</t>
+          <t>GO:2000114</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>chitin catabolic process</t>
+          <t>regulation of establishment of cell polarity</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3431,12 +3431,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GO:0051707</t>
+          <t>GO:0009313</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>response to other organism</t>
+          <t>oligosaccharide catabolic process</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3468,12 +3468,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GO:0030511</t>
+          <t>GO:0007018</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>positive regulation of transforming growth factor beta receptor signaling pathway</t>
+          <t>microtubule-based movement</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3505,12 +3505,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GO:0048385</t>
+          <t>GO:0043617</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>regulation of retinoic acid receptor signaling pathway</t>
+          <t>cellular response to sucrose starvation</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3542,12 +3542,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GO:0034265</t>
+          <t>GO:0007059</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>isopentenyl adenine biosynthetic process</t>
+          <t>chromosome segregation</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3579,12 +3579,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GO:0009083</t>
+          <t>GO:0071669</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>branched-chain amino acid catabolic process</t>
+          <t>plant-type cell wall organization or biogenesis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3653,12 +3653,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GO:0071902</t>
+          <t>GO:1901684</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>positive regulation of protein serine/threonine kinase activity</t>
+          <t>arsenate ion transmembrane transport</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3690,12 +3690,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GO:0001932</t>
+          <t>GO:0015700</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>regulation of protein phosphorylation</t>
+          <t>arsenite transport</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3727,12 +3727,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GO:0097242</t>
+          <t>GO:0098660</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>amyloid-beta clearance</t>
+          <t>inorganic ion transmembrane transport</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3801,12 +3801,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GO:0043617</t>
+          <t>GO:0009083</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cellular response to sucrose starvation</t>
+          <t>branched-chain amino acid catabolic process</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GO:0071669</t>
+          <t>GO:0010157</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>plant-type cell wall organization or biogenesis</t>
+          <t>response to chlorate</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3858,12 +3858,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3875,12 +3875,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GO:0007018</t>
+          <t>GO:0070914</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>microtubule-based movement</t>
+          <t>UV-damage excision repair</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3912,12 +3912,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GO:0031022</t>
+          <t>GO:0046900</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>nuclear migration along microfilament</t>
+          <t>tetrahydrofolylpolyglutamate metabolic process</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3932,12 +3932,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3949,12 +3949,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GO:0007059</t>
+          <t>GO:0009110</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>chromosome segregation</t>
+          <t>vitamin biosynthetic process</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3986,12 +3986,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GO:0097502</t>
+          <t>GO:0030174</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>mannosylation</t>
+          <t>regulation of DNA-templated DNA replication initiation</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4023,12 +4023,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GO:0043007</t>
+          <t>GO:0042372</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>maintenance of rDNA</t>
+          <t>phylloquinone biosynthetic process</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4043,12 +4043,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4060,12 +4060,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GO:2000114</t>
+          <t>GO:1990019</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>regulation of establishment of cell polarity</t>
+          <t>protein storage vacuole organization</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4097,12 +4097,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GO:0034260</t>
+          <t>GO:0006597</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>negative regulation of GTPase activity</t>
+          <t>spermine biosynthetic process</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4134,12 +4134,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GO:0016573</t>
+          <t>GO:0006624</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>histone acetylation</t>
+          <t>vacuolar protein processing</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4171,12 +4171,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GO:0071329</t>
+          <t>GO:0071482</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>cellular response to sucrose stimulus</t>
+          <t>cellular response to light stimulus</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4191,1495 +4191,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>GO:0000913</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>preprophase band assembly</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>GO:0106004</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>tRNA (guanine-N7)-methylation</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>GO:1900400</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>regulation of iron ion import into cell by regulation of transcription from RNA polymerase II promoter</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>GO:1902198</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>3-methylbut-2-enoyl-CoA(4-) metabolic process</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>GO:1902196</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>isovaleryl-CoA(4-) catabolic process</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>GO:1902192</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2-methylbut-2-enoyl-CoA(4-) metabolic process</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>GO:1902190</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2-methylbutanoyl-CoA(4-) catabolic process</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>GO:0009624</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>response to nematode</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>GO:0009313</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>oligosaccharide catabolic process</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>GO:0010992</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ubiquitin recycling</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>GO:0006075</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>(1-&gt;3)-beta-D-glucan biosynthetic process</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>GO:1901255</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>nucleotide-excision repair involved in interstrand cross-link repair</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>GO:0051289</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>protein homotetramerization</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>GO:0098660</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>inorganic ion transmembrane transport</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>GO:0008340</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>determination of adult lifespan</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>GO:0090303</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>positive regulation of wound healing</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>GO:0030837</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>negative regulation of actin filament polymerization</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>GO:0006293</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>nucleotide-excision repair,preincision complex stabilization</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>GO:0010815</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>bradykinin catabolic process</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>GO:0010104</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>regulation of ethylene-activated signaling pathway</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>GO:0032508</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>DNA duplex unwinding</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>GO:1900153</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>positive regulation of nuclear-transcribed mRNA catabolic process,deadenylation-dependent decay</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>GO:0060213</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>positive regulation of nuclear-transcribed mRNA poly(A) tail shortening</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>GO:0015700</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>arsenite transport</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>GO:0009556</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>microsporogenesis</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>GO:1904211</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>membrane protein proteolysis involved in retrograde protein transport,ER to cytosol</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>GO:1900000</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>regulation of anthocyanin catabolic process</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>GO:1901684</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>arsenate ion transmembrane transport</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>GO:0035194</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>post-transcriptional gene silencing by RNA</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>GO:0030174</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>regulation of DNA-dependent DNA replication initiation</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>GO:0071482</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>cellular response to light stimulus</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>GO:0006597</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>spermine biosynthetic process</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>GO:0042372</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>phylloquinone biosynthetic process</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>GO:0009110</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>vitamin biosynthetic process</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>GO:0071332</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>cellular response to fructose stimulus</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>GO:0046900</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>tetrahydrofolylpolyglutamate metabolic process</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>GO:0010157</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>response to chlorate</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>GO:1990019</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>protein storage vacuole organization</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>GO:0006624</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>vacuolar protein processing</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>GO:0070914</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>UV-damage excision repair</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
